--- a/pinouts.xlsx
+++ b/pinouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeremyNoonan\Documents\github\massey_3545_hitch_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11440C6-FC4A-4572-9814-D6A350AC8EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A61F8-E389-4773-89BC-D90844FA872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="15883" windowHeight="18514" xr2:uid="{D931354C-1D2E-4C84-8B02-94D2B887F842}"/>
+    <workbookView xWindow="1037" yWindow="-103" windowWidth="31980" windowHeight="18720" xr2:uid="{D931354C-1D2E-4C84-8B02-94D2B887F842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>All Pinouts from Tractor Side</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Big Dial</t>
   </si>
   <si>
-    <t>ARD</t>
-  </si>
-  <si>
     <t>Hitch Relay Up</t>
   </si>
   <si>
@@ -123,6 +120,36 @@
   </si>
   <si>
     <t>Hitch Computer</t>
+  </si>
+  <si>
+    <t>ARD-A1</t>
+  </si>
+  <si>
+    <t>ARD-SCL</t>
+  </si>
+  <si>
+    <t>ARD-SDA</t>
+  </si>
+  <si>
+    <t>ARD-11</t>
+  </si>
+  <si>
+    <t>ARD-10</t>
+  </si>
+  <si>
+    <t>A-5</t>
+  </si>
+  <si>
+    <t>A-6</t>
+  </si>
+  <si>
+    <t>Pull Up on Switch Board</t>
+  </si>
+  <si>
+    <t>9V Reg to ARD</t>
+  </si>
+  <si>
+    <t>GND To SB &amp; ARD</t>
   </si>
 </sst>
 </file>
@@ -285,6 +312,12 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,12 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -628,13 +655,14 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21.3046875" customWidth="1"/>
     <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -652,82 +680,82 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:9" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="8">
+      <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="2">
         <v>11</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="2">
         <v>9</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="2">
         <v>8</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="8">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="2">
         <v>6</v>
       </c>
     </row>
@@ -753,7 +781,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -766,14 +794,14 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" t="s">
@@ -786,11 +814,11 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D15" s="9">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" t="s">
@@ -803,15 +831,15 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D16" s="9">
+      <c r="D16" s="3">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -820,15 +848,18 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D17" s="9">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -837,15 +868,18 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D18" s="9">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -854,15 +888,18 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D19" s="9">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D19" s="3">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -871,15 +908,15 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D20" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -888,15 +925,15 @@
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D21" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D21" s="3">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -905,15 +942,15 @@
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D22" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D22" s="3">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -922,15 +959,18 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D23" s="9">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D23" s="3">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -939,11 +979,14 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D24" s="9">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D24" s="3">
         <v>12</v>
       </c>
       <c r="E24" t="s">
@@ -956,7 +999,10 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/pinouts.xlsx
+++ b/pinouts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeremyNoonan\Documents\github\massey_3545_hitch_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A61F8-E389-4773-89BC-D90844FA872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85953BE-AE0B-496C-8E1A-4FD258B5351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1037" yWindow="-103" windowWidth="31980" windowHeight="18720" xr2:uid="{D931354C-1D2E-4C84-8B02-94D2B887F842}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,24 +126,6 @@
     <t>ARD-A1</t>
   </si>
   <si>
-    <t>ARD-SCL</t>
-  </si>
-  <si>
-    <t>ARD-SDA</t>
-  </si>
-  <si>
-    <t>ARD-11</t>
-  </si>
-  <si>
-    <t>ARD-10</t>
-  </si>
-  <si>
-    <t>A-5</t>
-  </si>
-  <si>
-    <t>A-6</t>
-  </si>
-  <si>
     <t>Pull Up on Switch Board</t>
   </si>
   <si>
@@ -150,6 +133,24 @@
   </si>
   <si>
     <t>GND To SB &amp; ARD</t>
+  </si>
+  <si>
+    <t>Ard D7</t>
+  </si>
+  <si>
+    <t>Ard D6</t>
+  </si>
+  <si>
+    <t>ARD-D11</t>
+  </si>
+  <si>
+    <t>ARD-D10</t>
+  </si>
+  <si>
+    <t>ARD-A5</t>
+  </si>
+  <si>
+    <t>ARD-A4</t>
   </si>
 </sst>
 </file>
@@ -655,7 +656,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -814,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -831,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -848,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.4">
@@ -868,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.4">
@@ -891,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.4">
@@ -962,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.4">
@@ -982,7 +983,7 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.4">
@@ -1002,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
